--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Prn-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Prn-Rpsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Prn</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.106052</v>
+        <v>0.06489366666666667</v>
       </c>
       <c r="H2">
-        <v>0.318156</v>
+        <v>0.194681</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6456460240971847</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6456460240971846</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>79.66420866666668</v>
+        <v>75.74527233333333</v>
       </c>
       <c r="N2">
-        <v>238.992626</v>
+        <v>227.235817</v>
       </c>
       <c r="O2">
-        <v>0.1048332405251988</v>
+        <v>0.08010992451585024</v>
       </c>
       <c r="P2">
-        <v>0.1104048582881303</v>
+        <v>0.08641738889881904</v>
       </c>
       <c r="Q2">
-        <v>8.448548657517334</v>
+        <v>4.915388454375222</v>
       </c>
       <c r="R2">
-        <v>76.036937917656</v>
+        <v>44.238496089377</v>
       </c>
       <c r="S2">
-        <v>0.1048332405251988</v>
+        <v>0.05172265425438429</v>
       </c>
       <c r="T2">
-        <v>0.1104048582881303</v>
+        <v>0.05579504355538269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.106052</v>
+        <v>0.06489366666666667</v>
       </c>
       <c r="H3">
-        <v>0.318156</v>
+        <v>0.194681</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6456460240971847</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6456460240971846</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>316.1112466666667</v>
       </c>
       <c r="N3">
-        <v>948.3337399999999</v>
+        <v>948.33374</v>
       </c>
       <c r="O3">
-        <v>0.4159831235277584</v>
+        <v>0.3343264513940333</v>
       </c>
       <c r="P3">
-        <v>0.4380915592540191</v>
+        <v>0.3606496840920618</v>
       </c>
       <c r="Q3">
-        <v>33.52422993149333</v>
+        <v>20.51361787077111</v>
       </c>
       <c r="R3">
-        <v>301.71806938344</v>
+        <v>184.62256083694</v>
       </c>
       <c r="S3">
-        <v>0.4159831235277584</v>
+        <v>0.2158565440930783</v>
       </c>
       <c r="T3">
-        <v>0.4380915592540191</v>
+        <v>0.2328520346259453</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.106052</v>
+        <v>0.06489366666666667</v>
       </c>
       <c r="H4">
-        <v>0.318156</v>
+        <v>0.194681</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6456460240971847</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6456460240971846</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>116.842289</v>
+        <v>178.577067</v>
       </c>
       <c r="N4">
-        <v>350.526867</v>
+        <v>535.7312009999999</v>
       </c>
       <c r="O4">
-        <v>0.1537573270514019</v>
+        <v>0.1888671717315399</v>
       </c>
       <c r="P4">
-        <v>0.1619291344885148</v>
+        <v>0.203737650838945</v>
       </c>
       <c r="Q4">
-        <v>12.391358433028</v>
+        <v>11.588520660209</v>
       </c>
       <c r="R4">
-        <v>111.522225897252</v>
+        <v>104.296685941881</v>
       </c>
       <c r="S4">
-        <v>0.1537573270514019</v>
+        <v>0.121941338510949</v>
       </c>
       <c r="T4">
-        <v>0.1619291344885148</v>
+        <v>0.1315424042230652</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.106052</v>
+        <v>0.06489366666666667</v>
       </c>
       <c r="H5">
-        <v>0.318156</v>
+        <v>0.194681</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6456460240971847</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6456460240971846</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.04788</v>
+        <v>207.0351715</v>
       </c>
       <c r="N5">
-        <v>230.09576</v>
+        <v>414.070343</v>
       </c>
       <c r="O5">
-        <v>0.1513959942339921</v>
+        <v>0.2189651109577207</v>
       </c>
       <c r="P5">
-        <v>0.1062948685935592</v>
+        <v>0.1574702365802588</v>
       </c>
       <c r="Q5">
-        <v>12.20105776976</v>
+        <v>13.43527140759717</v>
       </c>
       <c r="R5">
-        <v>73.20634661855999</v>
+        <v>80.61162844558299</v>
       </c>
       <c r="S5">
-        <v>0.1513959942339921</v>
+        <v>0.1413739533058513</v>
       </c>
       <c r="T5">
-        <v>0.1062948685935592</v>
+        <v>0.1016700321616871</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.106052</v>
+        <v>0.06489366666666667</v>
       </c>
       <c r="H6">
-        <v>0.318156</v>
+        <v>0.194681</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.6456460240971847</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.6456460240971846</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>132.2480086666667</v>
+        <v>168.0479533333333</v>
       </c>
       <c r="N6">
-        <v>396.744026</v>
+        <v>504.14386</v>
       </c>
       <c r="O6">
-        <v>0.1740303146616488</v>
+        <v>0.1777313414008557</v>
       </c>
       <c r="P6">
-        <v>0.1832795793757766</v>
+        <v>0.1917250395899155</v>
       </c>
       <c r="Q6">
-        <v>14.02516581511733</v>
+        <v>10.90524786762889</v>
       </c>
       <c r="R6">
-        <v>126.226492336056</v>
+        <v>98.14723080866</v>
       </c>
       <c r="S6">
-        <v>0.1740303146616488</v>
+        <v>0.1147515339329218</v>
       </c>
       <c r="T6">
-        <v>0.1832795793757766</v>
+        <v>0.1237865095311042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.035616</v>
+      </c>
+      <c r="H7">
+        <v>0.106848</v>
+      </c>
+      <c r="I7">
+        <v>0.3543539759028154</v>
+      </c>
+      <c r="J7">
+        <v>0.3543539759028153</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>75.74527233333333</v>
+      </c>
+      <c r="N7">
+        <v>227.235817</v>
+      </c>
+      <c r="O7">
+        <v>0.08010992451585024</v>
+      </c>
+      <c r="P7">
+        <v>0.08641738889881904</v>
+      </c>
+      <c r="Q7">
+        <v>2.697743619424</v>
+      </c>
+      <c r="R7">
+        <v>24.279692574816</v>
+      </c>
+      <c r="S7">
+        <v>0.02838727026146595</v>
+      </c>
+      <c r="T7">
+        <v>0.03062234534343634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.035616</v>
+      </c>
+      <c r="H8">
+        <v>0.106848</v>
+      </c>
+      <c r="I8">
+        <v>0.3543539759028154</v>
+      </c>
+      <c r="J8">
+        <v>0.3543539759028153</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>316.1112466666667</v>
+      </c>
+      <c r="N8">
+        <v>948.33374</v>
+      </c>
+      <c r="O8">
+        <v>0.3343264513940333</v>
+      </c>
+      <c r="P8">
+        <v>0.3606496840920618</v>
+      </c>
+      <c r="Q8">
+        <v>11.25861816128</v>
+      </c>
+      <c r="R8">
+        <v>101.32756345152</v>
+      </c>
+      <c r="S8">
+        <v>0.118469907300955</v>
+      </c>
+      <c r="T8">
+        <v>0.1277976494661164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.035616</v>
+      </c>
+      <c r="H9">
+        <v>0.106848</v>
+      </c>
+      <c r="I9">
+        <v>0.3543539759028154</v>
+      </c>
+      <c r="J9">
+        <v>0.3543539759028153</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>178.577067</v>
+      </c>
+      <c r="N9">
+        <v>535.7312009999999</v>
+      </c>
+      <c r="O9">
+        <v>0.1888671717315399</v>
+      </c>
+      <c r="P9">
+        <v>0.203737650838945</v>
+      </c>
+      <c r="Q9">
+        <v>6.360200818271999</v>
+      </c>
+      <c r="R9">
+        <v>57.24180736444799</v>
+      </c>
+      <c r="S9">
+        <v>0.06692583322059099</v>
+      </c>
+      <c r="T9">
+        <v>0.0721952466158797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.035616</v>
+      </c>
+      <c r="H10">
+        <v>0.106848</v>
+      </c>
+      <c r="I10">
+        <v>0.3543539759028154</v>
+      </c>
+      <c r="J10">
+        <v>0.3543539759028153</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>207.0351715</v>
+      </c>
+      <c r="N10">
+        <v>414.070343</v>
+      </c>
+      <c r="O10">
+        <v>0.2189651109577207</v>
+      </c>
+      <c r="P10">
+        <v>0.1574702365802588</v>
+      </c>
+      <c r="Q10">
+        <v>7.373764668144</v>
+      </c>
+      <c r="R10">
+        <v>44.242588008864</v>
+      </c>
+      <c r="S10">
+        <v>0.07759115765186947</v>
+      </c>
+      <c r="T10">
+        <v>0.05580020441857166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.035616</v>
+      </c>
+      <c r="H11">
+        <v>0.106848</v>
+      </c>
+      <c r="I11">
+        <v>0.3543539759028154</v>
+      </c>
+      <c r="J11">
+        <v>0.3543539759028153</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>168.0479533333333</v>
+      </c>
+      <c r="N11">
+        <v>504.14386</v>
+      </c>
+      <c r="O11">
+        <v>0.1777313414008557</v>
+      </c>
+      <c r="P11">
+        <v>0.1917250395899155</v>
+      </c>
+      <c r="Q11">
+        <v>5.98519590592</v>
+      </c>
+      <c r="R11">
+        <v>53.86676315328</v>
+      </c>
+      <c r="S11">
+        <v>0.06297980746793387</v>
+      </c>
+      <c r="T11">
+        <v>0.06793853005881122</v>
       </c>
     </row>
   </sheetData>
